--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Development\Hardware\3Axis_Gimbal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66702FFF-5173-4508-A92D-82CE19987789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334E9CD-01F8-45B7-B8AC-6901D5F0A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +499,12 @@
         <v>138.25</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f>SUM(F2:F4)</f>
+        <v>366.34000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer Development\Hardware\3Axis_Gimbal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334E9CD-01F8-45B7-B8AC-6901D5F0A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D35219-BA0F-49AB-A3AA-FB69D811AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,6 +136,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>880740</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>931500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>134640</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F533C61D-4E17-524A-9AAF-1332AB495378}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2000880" y="251640"/>
+            <a:ext cx="50760" cy="65880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F533C61D-4E17-524A-9AAF-1332AB495378}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1994760" y="245553"/>
+              <a:ext cx="63000" cy="78053"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-19T12:04:59.491"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">141 43 0 0 0,'0'0'0'0'0,"-23"-16"0"0"0,4 2 0 0 0,-2 1 0 0 0,-4 24 0 0 0,30 19 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1667.59">69 183 0 0 0,'-20'-29'0'0'0,"-3"8"0"0"0,-3 5 0 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,7 +506,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,5 +609,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>